--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 20,03,25ц-выезд 22,03.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 20,03,25ц-выезд 22,03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C44A6F-ED18-4C8E-83D1-89C39057A993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03591D3-9A47-44D3-A6EC-5A7448211629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,22 +17,14 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$169</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="246">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -762,6 +754,15 @@
   <si>
     <t>ВЕТЧ.ФИЛЕЙНАЯ ПМ п/о 0,4кг 8шт.</t>
   </si>
+  <si>
+    <t>САЛЬЧИЧОН Останкино с/к в/у 1/220 8шт.</t>
+  </si>
+  <si>
+    <t>ТОСКАНО ПРЕМИУМ Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ФИНСКАЯ Папа может с/к в/у 1/180</t>
+  </si>
 </sst>
 </file>
 
@@ -1291,7 +1292,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1526,7 +1527,6 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1624,9 +1624,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1664,9 +1664,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1699,26 +1699,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1751,26 +1734,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1947,11 +1913,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1690"/>
+  <dimension ref="A1:L1693"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I171" sqref="I171"/>
+      <pane ySplit="9" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,8 +1930,8 @@
     <col min="8" max="9" width="11.5703125" style="5" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" style="6" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" style="82" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" style="92" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="92" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1975,14 +1941,14 @@
       <c r="D1" s="59">
         <v>130425448</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="101"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1990,19 +1956,19 @@
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="97">
         <v>45738</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="102">
+      <c r="F3" s="97"/>
+      <c r="G3" s="101">
         <v>45741</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="101"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2095,8 +2061,8 @@
       <c r="J10" s="75"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D165,4)</f>
+      <c r="A11" s="93" t="str">
+        <f>RIGHT(D11:D168,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2123,11 +2089,11 @@
         <v>30</v>
       </c>
       <c r="J11" s="39"/>
-      <c r="L11" s="95"/>
+      <c r="L11" s="94"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D166,4)</f>
+      <c r="A12" s="93" t="str">
+        <f>RIGHT(D12:D169,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2148,11 +2114,11 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="39"/>
-      <c r="L12" s="95"/>
+      <c r="L12" s="94"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D166,4)</f>
+      <c r="A13" s="93" t="str">
+        <f>RIGHT(D13:D169,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2175,8 +2141,8 @@
       <c r="J13" s="39"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D167,4)</f>
+      <c r="A14" s="93" t="str">
+        <f>RIGHT(D14:D170,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2198,9 +2164,9 @@
       <c r="I14" s="14"/>
       <c r="J14" s="39"/>
     </row>
-    <row r="15" spans="1:12" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D168,4)</f>
+    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="93" t="str">
+        <f>RIGHT(D15:D171,4)</f>
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2223,11 +2189,10 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="39"/>
-      <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D168,4)</f>
+      <c r="A16" s="93" t="str">
+        <f>RIGHT(D16:D171,4)</f>
         <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2249,9 +2214,9 @@
       <c r="I16" s="14"/>
       <c r="J16" s="39"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D168,4)</f>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="93" t="str">
+        <f>RIGHT(D17:D171,4)</f>
         <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2279,9 +2244,9 @@
       </c>
       <c r="J17" s="39"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D169,4)</f>
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="93" t="str">
+        <f>RIGHT(D18:D172,4)</f>
         <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2305,9 +2270,9 @@
       <c r="I18" s="14"/>
       <c r="J18" s="39"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D170,4)</f>
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="93" t="str">
+        <f>RIGHT(D19:D173,4)</f>
         <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2331,9 +2296,9 @@
       <c r="I19" s="14"/>
       <c r="J19" s="39"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D171,4)</f>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="93" t="str">
+        <f>RIGHT(D20:D174,4)</f>
         <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2355,9 +2320,9 @@
       <c r="I20" s="14"/>
       <c r="J20" s="39"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D172,4)</f>
+    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="93" t="str">
+        <f>RIGHT(D21:D175,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2385,9 +2350,9 @@
       </c>
       <c r="J21" s="39"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D173,4)</f>
+    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="93" t="str">
+        <f>RIGHT(D22:D176,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2415,9 +2380,9 @@
       </c>
       <c r="J22" s="39"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D174,4)</f>
+    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="93" t="str">
+        <f>RIGHT(D23:D177,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2445,9 +2410,9 @@
       </c>
       <c r="J23" s="39"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D175,4)</f>
+    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="93" t="str">
+        <f>RIGHT(D24:D178,4)</f>
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2475,9 +2440,9 @@
       </c>
       <c r="J24" s="39"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D179,4)</f>
+    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="93" t="str">
+        <f>RIGHT(D25:D182,4)</f>
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2499,9 +2464,9 @@
       <c r="I25" s="14"/>
       <c r="J25" s="39"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D179,4)</f>
+    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="93" t="str">
+        <f>RIGHT(D26:D182,4)</f>
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2523,9 +2488,9 @@
       <c r="I26" s="14"/>
       <c r="J26" s="39"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D180,4)</f>
+    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="93" t="str">
+        <f>RIGHT(D27:D183,4)</f>
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2553,9 +2518,9 @@
       </c>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D183,4)</f>
+    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="93" t="str">
+        <f>RIGHT(D28:D186,4)</f>
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2583,9 +2548,9 @@
       </c>
       <c r="J28" s="39"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D184,4)</f>
+    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93" t="str">
+        <f>RIGHT(D29:D187,4)</f>
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2613,9 +2578,9 @@
       </c>
       <c r="J29" s="39"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D185,4)</f>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="93" t="str">
+        <f>RIGHT(D30:D188,4)</f>
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2639,9 +2604,9 @@
       <c r="I30" s="14"/>
       <c r="J30" s="39"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D186,4)</f>
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="93" t="str">
+        <f>RIGHT(D31:D189,4)</f>
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2663,9 +2628,9 @@
       <c r="I31" s="14"/>
       <c r="J31" s="39"/>
     </row>
-    <row r="32" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D187,4)</f>
+    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="93" t="str">
+        <f>RIGHT(D32:D190,4)</f>
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2686,11 +2651,10 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="82"/>
-    </row>
-    <row r="33" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D188,4)</f>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="93" t="str">
+        <f>RIGHT(D33:D191,4)</f>
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2713,11 +2677,10 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="39"/>
-      <c r="K33" s="82"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D186,4)</f>
+      <c r="A34" s="93" t="str">
+        <f>RIGHT(D34:D189,4)</f>
         <v>5851</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2746,8 +2709,8 @@
       <c r="J34" s="39"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D187,4)</f>
+      <c r="A35" s="93" t="str">
+        <f>RIGHT(D35:D190,4)</f>
         <v>6159</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2770,8 +2733,8 @@
       <c r="J35" s="39"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D187,4)</f>
+      <c r="A36" s="93" t="str">
+        <f>RIGHT(D36:D190,4)</f>
         <v>6158</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2798,11 +2761,11 @@
       <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D189,4)</f>
+      <c r="A37" s="93" t="str">
+        <f>RIGHT(D37:D192,4)</f>
         <v>6340</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="95" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="33" t="s">
@@ -2826,8 +2789,8 @@
       <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D187,4)</f>
+      <c r="A38" s="93" t="str">
+        <f>RIGHT(D38:D190,4)</f>
         <v>6353</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2856,8 +2819,8 @@
       <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D188,4)</f>
+      <c r="A39" s="93" t="str">
+        <f>RIGHT(D39:D191,4)</f>
         <v/>
       </c>
       <c r="B39" s="74" t="s">
@@ -2873,8 +2836,8 @@
       <c r="J39" s="75"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D191,4)</f>
+      <c r="A40" s="93" t="str">
+        <f>RIGHT(D40:D194,4)</f>
         <v>6870</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2898,8 +2861,8 @@
       <c r="K40" s="82"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D193,4)</f>
+      <c r="A41" s="93" t="str">
+        <f>RIGHT(D41:D196,4)</f>
         <v>7038</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2923,8 +2886,8 @@
       <c r="K41" s="82"/>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D194,4)</f>
+      <c r="A42" s="93" t="str">
+        <f>RIGHT(D42:D197,4)</f>
         <v>7040</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2950,8 +2913,8 @@
       <c r="K42" s="82"/>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D193,4)</f>
+      <c r="A43" s="93" t="str">
+        <f>RIGHT(D43:D196,4)</f>
         <v>7075</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2975,8 +2938,8 @@
       <c r="K43" s="82"/>
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D194,4)</f>
+      <c r="A44" s="93" t="str">
+        <f>RIGHT(D44:D197,4)</f>
         <v>7070</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -3000,8 +2963,8 @@
       <c r="K44" s="82"/>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D192,4)</f>
+      <c r="A45" s="93" t="str">
+        <f>RIGHT(D45:D195,4)</f>
         <v>6253</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3025,8 +2988,8 @@
       <c r="K45" s="82"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D191,4)</f>
+      <c r="A46" s="93" t="str">
+        <f>RIGHT(D46:D194,4)</f>
         <v>6602</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3050,8 +3013,8 @@
       <c r="K46" s="82"/>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D194,4)</f>
+      <c r="A47" s="93" t="str">
+        <f>RIGHT(D47:D197,4)</f>
         <v>6768</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3075,8 +3038,8 @@
       <c r="K47" s="82"/>
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D195,4)</f>
+      <c r="A48" s="93" t="str">
+        <f>RIGHT(D48:D198,4)</f>
         <v>6770</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3100,8 +3063,8 @@
       <c r="K48" s="82"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D198,4)</f>
+      <c r="A49" s="93" t="str">
+        <f>RIGHT(D49:D201,4)</f>
         <v>6829</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3124,8 +3087,8 @@
       <c r="J49" s="39"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D203,4)</f>
+      <c r="A50" s="93" t="str">
+        <f>RIGHT(D50:D206,4)</f>
         <v>7074</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3148,8 +3111,8 @@
       <c r="J50" s="39"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D204,4)</f>
+      <c r="A51" s="93" t="str">
+        <f>RIGHT(D51:D207,4)</f>
         <v>7073</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3172,8 +3135,8 @@
       <c r="J51" s="39"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D205,4)</f>
+      <c r="A52" s="93" t="str">
+        <f>RIGHT(D52:D208,4)</f>
         <v>6759</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3196,8 +3159,8 @@
       <c r="J52" s="39"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D206,4)</f>
+      <c r="A53" s="93" t="str">
+        <f>RIGHT(D53:D209,4)</f>
         <v>6724</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3222,8 +3185,8 @@
       <c r="J53" s="39"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D207,4)</f>
+      <c r="A54" s="93" t="str">
+        <f>RIGHT(D54:D210,4)</f>
         <v>6616</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3248,8 +3211,8 @@
       <c r="J54" s="39"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D206,4)</f>
+      <c r="A55" s="93" t="str">
+        <f>RIGHT(D55:D209,4)</f>
         <v>6901</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3274,8 +3237,8 @@
       <c r="J55" s="39"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D207,4)</f>
+      <c r="A56" s="93" t="str">
+        <f>RIGHT(D56:D210,4)</f>
         <v>6962</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3300,8 +3263,8 @@
       <c r="J56" s="39"/>
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D205,4)</f>
+      <c r="A57" s="93" t="str">
+        <f>RIGHT(D57:D208,4)</f>
         <v>6303</v>
       </c>
       <c r="B57" s="70" t="s">
@@ -3331,8 +3294,8 @@
       <c r="K57" s="82"/>
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D206,4)</f>
+      <c r="A58" s="93" t="str">
+        <f>RIGHT(D58:D209,4)</f>
         <v>7077</v>
       </c>
       <c r="B58" s="70" t="s">
@@ -3356,8 +3319,8 @@
       <c r="K58" s="82"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D206,4)</f>
+      <c r="A59" s="93" t="str">
+        <f>RIGHT(D59:D209,4)</f>
         <v>7080</v>
       </c>
       <c r="B59" s="45" t="s">
@@ -3386,8 +3349,8 @@
       <c r="J59" s="39"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D207,4)</f>
+      <c r="A60" s="93" t="str">
+        <f>RIGHT(D60:D210,4)</f>
         <v>6762</v>
       </c>
       <c r="B60" s="45" t="s">
@@ -3412,8 +3375,8 @@
       <c r="J60" s="39"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D207,4)</f>
+      <c r="A61" s="93" t="str">
+        <f>RIGHT(D61:D210,4)</f>
         <v>5820</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3438,8 +3401,8 @@
       <c r="J61" s="39"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D208,4)</f>
+      <c r="A62" s="93" t="str">
+        <f>RIGHT(D62:D211,4)</f>
         <v>7082</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3462,8 +3425,8 @@
       <c r="J62" s="39"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D209,4)</f>
+      <c r="A63" s="93" t="str">
+        <f>RIGHT(D63:D212,4)</f>
         <v>6764</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3486,8 +3449,8 @@
       <c r="J63" s="39"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D211,4)</f>
+      <c r="A64" s="93" t="str">
+        <f>RIGHT(D64:D214,4)</f>
         <v>6761</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3510,8 +3473,8 @@
       <c r="J64" s="39"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D212,4)</f>
+      <c r="A65" s="93" t="str">
+        <f>RIGHT(D65:D215,4)</f>
         <v>6767</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3534,8 +3497,8 @@
       <c r="J65" s="39"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D212,4)</f>
+      <c r="A66" s="93" t="str">
+        <f>RIGHT(D66:D215,4)</f>
         <v>6765</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3558,8 +3521,8 @@
       <c r="J66" s="39"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D213,4)</f>
+      <c r="A67" s="93" t="str">
+        <f>RIGHT(D67:D216,4)</f>
         <v>6909</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3584,8 +3547,8 @@
       <c r="J67" s="39"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D214,4)</f>
+      <c r="A68" s="93" t="str">
+        <f>RIGHT(D68:D217,4)</f>
         <v>6987</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3610,8 +3573,8 @@
       <c r="J68" s="39"/>
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D212,4)</f>
+      <c r="A69" s="93" t="str">
+        <f>RIGHT(D69:D215,4)</f>
         <v>7066</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3640,8 +3603,8 @@
       <c r="J69" s="39"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D213,4)</f>
+      <c r="A70" s="93" t="str">
+        <f>RIGHT(D70:D216,4)</f>
         <v>6837</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3666,8 +3629,8 @@
       <c r="J70" s="39"/>
     </row>
     <row r="71" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="94" t="str">
-        <f>RIGHT(D71:D215,4)</f>
+      <c r="A71" s="93" t="str">
+        <f>RIGHT(D71:D218,4)</f>
         <v>6661</v>
       </c>
       <c r="B71" s="27" t="s">
@@ -3691,8 +3654,8 @@
       <c r="K71" s="82"/>
     </row>
     <row r="72" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D216,4)</f>
+      <c r="A72" s="93" t="str">
+        <f>RIGHT(D72:D219,4)</f>
         <v>6713</v>
       </c>
       <c r="B72" s="27" t="s">
@@ -3716,8 +3679,8 @@
       <c r="K72" s="82"/>
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D212,4)</f>
+      <c r="A73" s="93" t="str">
+        <f>RIGHT(D73:D215,4)</f>
         <v/>
       </c>
       <c r="B73" s="74" t="s">
@@ -3733,8 +3696,8 @@
       <c r="J73" s="75"/>
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D213,4)</f>
+      <c r="A74" s="93" t="str">
+        <f>RIGHT(D74:D216,4)</f>
         <v>5698</v>
       </c>
       <c r="B74" s="46" t="s">
@@ -3763,8 +3726,8 @@
       <c r="J74" s="39"/>
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D216,4)</f>
+      <c r="A75" s="93" t="str">
+        <f>RIGHT(D75:D219,4)</f>
         <v>6528</v>
       </c>
       <c r="B75" s="46" t="s">
@@ -3787,8 +3750,8 @@
       <c r="J75" s="39"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D217,4)</f>
+      <c r="A76" s="93" t="str">
+        <f>RIGHT(D76:D220,4)</f>
         <v>7059</v>
       </c>
       <c r="B76" s="46" t="s">
@@ -3813,8 +3776,8 @@
       <c r="J76" s="39"/>
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D217,4)</f>
+      <c r="A77" s="93" t="str">
+        <f>RIGHT(D77:D220,4)</f>
         <v>6609</v>
       </c>
       <c r="B77" s="46" t="s">
@@ -3839,8 +3802,8 @@
       <c r="J77" s="39"/>
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D218,4)</f>
+      <c r="A78" s="93" t="str">
+        <f>RIGHT(D78:D221,4)</f>
         <v>7001</v>
       </c>
       <c r="B78" s="46" t="s">
@@ -3865,8 +3828,8 @@
       <c r="J78" s="39"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="94" t="str">
-        <f>RIGHT(D79:D218,4)</f>
+      <c r="A79" s="93" t="str">
+        <f>RIGHT(D79:D221,4)</f>
         <v>6527</v>
       </c>
       <c r="B79" s="46" t="s">
@@ -3895,8 +3858,8 @@
       <c r="J79" s="39"/>
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D219,4)</f>
+      <c r="A80" s="93" t="str">
+        <f>RIGHT(D80:D222,4)</f>
         <v/>
       </c>
       <c r="B80" s="74" t="s">
@@ -3912,8 +3875,8 @@
       <c r="J80" s="75"/>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D220,4)</f>
+      <c r="A81" s="93" t="str">
+        <f>RIGHT(D81:D223,4)</f>
         <v>7232</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -3940,8 +3903,8 @@
       <c r="J81" s="39"/>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="94" t="str">
-        <f>RIGHT(D82:D221,4)</f>
+      <c r="A82" s="93" t="str">
+        <f>RIGHT(D82:D224,4)</f>
         <v>6785</v>
       </c>
       <c r="B82" s="27" t="s">
@@ -3964,11 +3927,11 @@
       <c r="J82" s="39"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D222,4)</f>
+      <c r="A83" s="93" t="str">
+        <f>RIGHT(D83:D225,4)</f>
         <v>7149</v>
       </c>
-      <c r="B83" s="97" t="s">
+      <c r="B83" s="96" t="s">
         <v>91</v>
       </c>
       <c r="C83" s="33" t="s">
@@ -3992,8 +3955,8 @@
       <c r="J83" s="39"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="94" t="str">
-        <f>RIGHT(D84:D222,4)</f>
+      <c r="A84" s="93" t="str">
+        <f>RIGHT(D84:D225,4)</f>
         <v>6786</v>
       </c>
       <c r="B84" s="27" t="s">
@@ -4016,8 +3979,8 @@
       <c r="J84" s="39"/>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="94" t="str">
-        <f>RIGHT(D85:D223,4)</f>
+      <c r="A85" s="93" t="str">
+        <f>RIGHT(D85:D226,4)</f>
         <v>4903</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -4040,8 +4003,8 @@
       <c r="J85" s="39"/>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="94" t="str">
-        <f>RIGHT(D86:D223,4)</f>
+      <c r="A86" s="93" t="str">
+        <f>RIGHT(D86:D226,4)</f>
         <v>7131</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -4066,8 +4029,8 @@
       <c r="J86" s="39"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D221,4)</f>
+      <c r="A87" s="93" t="str">
+        <f>RIGHT(D87:D224,4)</f>
         <v>7241</v>
       </c>
       <c r="B87" s="27" t="s">
@@ -4096,8 +4059,8 @@
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="94" t="str">
-        <f>RIGHT(D88:D224,4)</f>
+      <c r="A88" s="93" t="str">
+        <f>RIGHT(D88:D227,4)</f>
         <v/>
       </c>
       <c r="B88" s="74" t="s">
@@ -4113,8 +4076,8 @@
       <c r="J88" s="75"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="94" t="str">
-        <f>RIGHT(D89:D225,4)</f>
+      <c r="A89" s="93" t="str">
+        <f>RIGHT(D89:D228,4)</f>
         <v>7154</v>
       </c>
       <c r="B89" s="27" t="s">
@@ -4141,8 +4104,8 @@
       <c r="J89" s="39"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="94" t="str">
-        <f>RIGHT(D90:D227,4)</f>
+      <c r="A90" s="93" t="str">
+        <f>RIGHT(D90:D230,4)</f>
         <v>6793</v>
       </c>
       <c r="B90" s="27" t="s">
@@ -4165,8 +4128,8 @@
       <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="94" t="str">
-        <f>RIGHT(D91:D228,4)</f>
+      <c r="A91" s="93" t="str">
+        <f>RIGHT(D91:D231,4)</f>
         <v>6795</v>
       </c>
       <c r="B91" s="27" t="s">
@@ -4189,8 +4152,8 @@
       <c r="J91" s="39"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D228,4)</f>
+      <c r="A92" s="93" t="str">
+        <f>RIGHT(D92:D231,4)</f>
         <v>6807</v>
       </c>
       <c r="B92" s="27" t="s">
@@ -4213,8 +4176,8 @@
       <c r="J92" s="39"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="94" t="str">
-        <f>RIGHT(D93:D228,4)</f>
+      <c r="A93" s="93" t="str">
+        <f>RIGHT(D93:D231,4)</f>
         <v>7236</v>
       </c>
       <c r="B93" s="27" t="s">
@@ -4243,8 +4206,8 @@
       <c r="J93" s="39"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="94" t="str">
-        <f>RIGHT(D94:D230,4)</f>
+      <c r="A94" s="93" t="str">
+        <f>RIGHT(D94:D233,4)</f>
         <v>6787</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -4267,8 +4230,8 @@
       <c r="J94" s="39"/>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="94" t="str">
-        <f>RIGHT(D95:D231,4)</f>
+      <c r="A95" s="93" t="str">
+        <f>RIGHT(D95:D234,4)</f>
         <v>6788</v>
       </c>
       <c r="B95" s="27" t="s">
@@ -4291,8 +4254,8 @@
       <c r="J95" s="39"/>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="94" t="str">
-        <f>RIGHT(D96:D232,4)</f>
+      <c r="A96" s="93" t="str">
+        <f>RIGHT(D96:D235,4)</f>
         <v>6790</v>
       </c>
       <c r="B96" s="27" t="s">
@@ -4315,8 +4278,8 @@
       <c r="J96" s="39"/>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="94" t="str">
-        <f>RIGHT(D97:D231,4)</f>
+      <c r="A97" s="93" t="str">
+        <f>RIGHT(D97:D234,4)</f>
         <v>7169</v>
       </c>
       <c r="B97" s="64" t="s">
@@ -4343,8 +4306,8 @@
       <c r="J97" s="39"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="94" t="str">
-        <f>RIGHT(D98:D232,4)</f>
+      <c r="A98" s="93" t="str">
+        <f>RIGHT(D98:D235,4)</f>
         <v>6791</v>
       </c>
       <c r="B98" s="64" t="s">
@@ -4367,8 +4330,8 @@
       <c r="J98" s="39"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="94" t="str">
-        <f>RIGHT(D99:D233,4)</f>
+      <c r="A99" s="93" t="str">
+        <f>RIGHT(D99:D236,4)</f>
         <v>7166</v>
       </c>
       <c r="B99" s="64" t="s">
@@ -4393,8 +4356,8 @@
       <c r="J99" s="39"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="94" t="str">
-        <f>RIGHT(D100:D234,4)</f>
+      <c r="A100" s="93" t="str">
+        <f>RIGHT(D100:D237,4)</f>
         <v>6459</v>
       </c>
       <c r="B100" s="64" t="s">
@@ -4419,8 +4382,8 @@
       <c r="J100" s="39"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D235,4)</f>
+      <c r="A101" s="93" t="str">
+        <f>RIGHT(D101:D238,4)</f>
         <v>6586</v>
       </c>
       <c r="B101" s="64" t="s">
@@ -4443,8 +4406,8 @@
       <c r="J101" s="39"/>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="94" t="str">
-        <f>RIGHT(D102:D233,4)</f>
+      <c r="A102" s="93" t="str">
+        <f>RIGHT(D102:D236,4)</f>
         <v>6228</v>
       </c>
       <c r="B102" s="64" t="s">
@@ -4467,8 +4430,8 @@
       <c r="J102" s="39"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D234,4)</f>
+      <c r="A103" s="93" t="str">
+        <f>RIGHT(D103:D237,4)</f>
         <v>7087</v>
       </c>
       <c r="B103" s="64" t="s">
@@ -4493,8 +4456,8 @@
       <c r="J103" s="39"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="94" t="str">
-        <f>RIGHT(D104:D233,4)</f>
+      <c r="A104" s="93" t="str">
+        <f>RIGHT(D104:D236,4)</f>
         <v>5544</v>
       </c>
       <c r="B104" s="27" t="s">
@@ -4523,8 +4486,8 @@
       <c r="J104" s="39"/>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="94" t="str">
-        <f>RIGHT(D105:D235,4)</f>
+      <c r="A105" s="93" t="str">
+        <f>RIGHT(D105:D238,4)</f>
         <v>6697</v>
       </c>
       <c r="B105" s="27" t="s">
@@ -4553,8 +4516,8 @@
       <c r="J105" s="39"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="94" t="str">
-        <f>RIGHT(D106:D236,4)</f>
+      <c r="A106" s="93" t="str">
+        <f>RIGHT(D106:D239,4)</f>
         <v/>
       </c>
       <c r="B106" s="74" t="s">
@@ -4570,8 +4533,8 @@
       <c r="J106" s="75"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="94" t="str">
-        <f>RIGHT(D107:D237,4)</f>
+      <c r="A107" s="93" t="str">
+        <f>RIGHT(D107:D240,4)</f>
         <v>5706</v>
       </c>
       <c r="B107" s="27" t="s">
@@ -4600,8 +4563,8 @@
       <c r="J107" s="39"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="94" t="str">
-        <f>RIGHT(D108:D238,4)</f>
+      <c r="A108" s="93" t="str">
+        <f>RIGHT(D108:D241,4)</f>
         <v>6454</v>
       </c>
       <c r="B108" s="27" t="s">
@@ -4630,8 +4593,8 @@
       <c r="J108" s="39"/>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="94" t="str">
-        <f>RIGHT(D109:D239,4)</f>
+      <c r="A109" s="93" t="str">
+        <f>RIGHT(D109:D242,4)</f>
         <v>6222</v>
       </c>
       <c r="B109" s="27" t="s">
@@ -4654,8 +4617,8 @@
       <c r="J109" s="39"/>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="94" t="str">
-        <f>RIGHT(D110:D240,4)</f>
+      <c r="A110" s="93" t="str">
+        <f>RIGHT(D110:D243,4)</f>
         <v>5931</v>
       </c>
       <c r="B110" s="27" t="s">
@@ -4684,8 +4647,8 @@
       <c r="J110" s="39"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="94" t="str">
-        <f>RIGHT(D111:D242,4)</f>
+      <c r="A111" s="93" t="str">
+        <f>RIGHT(D111:D245,4)</f>
         <v>5708</v>
       </c>
       <c r="B111" s="27" t="s">
@@ -4714,8 +4677,8 @@
       <c r="J111" s="39"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="94" t="str">
-        <f>RIGHT(D112:D243,4)</f>
+      <c r="A112" s="93" t="str">
+        <f>RIGHT(D112:D246,4)</f>
         <v>1146</v>
       </c>
       <c r="B112" s="27" t="s">
@@ -4738,8 +4701,8 @@
       <c r="J112" s="39"/>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="94" t="str">
-        <f>RIGHT(D113:D243,4)</f>
+      <c r="A113" s="93" t="str">
+        <f>RIGHT(D113:D246,4)</f>
         <v>6834</v>
       </c>
       <c r="B113" s="27" t="s">
@@ -4762,8 +4725,8 @@
       <c r="J113" s="39"/>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="94" t="str">
-        <f>RIGHT(D114:D244,4)</f>
+      <c r="A114" s="93" t="str">
+        <f>RIGHT(D114:D247,4)</f>
         <v>6448</v>
       </c>
       <c r="B114" s="27" t="s">
@@ -4788,8 +4751,8 @@
       <c r="J114" s="39"/>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="94" t="str">
-        <f>RIGHT(D115:D245,4)</f>
+      <c r="A115" s="93" t="str">
+        <f>RIGHT(D115:D248,4)</f>
         <v>6221</v>
       </c>
       <c r="B115" s="27" t="s">
@@ -4814,8 +4777,8 @@
       <c r="J115" s="39"/>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="94" t="str">
-        <f>RIGHT(D116:D245,4)</f>
+      <c r="A116" s="93" t="str">
+        <f>RIGHT(D116:D248,4)</f>
         <v>5679</v>
       </c>
       <c r="B116" s="27" t="s">
@@ -4840,8 +4803,8 @@
       <c r="J116" s="39"/>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="94" t="str">
-        <f>RIGHT(D117:D247,4)</f>
+      <c r="A117" s="93" t="str">
+        <f>RIGHT(D117:D250,4)</f>
         <v>4993</v>
       </c>
       <c r="B117" s="27" t="s">
@@ -4870,8 +4833,8 @@
       <c r="J117" s="39"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="94" t="str">
-        <f>RIGHT(D118:D248,4)</f>
+      <c r="A118" s="93" t="str">
+        <f>RIGHT(D118:D251,4)</f>
         <v>7105</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -4896,8 +4859,8 @@
       <c r="J118" s="39"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="94" t="str">
-        <f>RIGHT(D119:D249,4)</f>
+      <c r="A119" s="93" t="str">
+        <f>RIGHT(D119:D252,4)</f>
         <v>7106</v>
       </c>
       <c r="B119" s="27" t="s">
@@ -4922,8 +4885,8 @@
       <c r="J119" s="39"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="94" t="str">
-        <f>RIGHT(D120:D250,4)</f>
+      <c r="A120" s="93" t="str">
+        <f>RIGHT(D120:D253,4)</f>
         <v>7107</v>
       </c>
       <c r="B120" s="27" t="s">
@@ -4948,22 +4911,22 @@
       <c r="J120" s="39"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="94" t="str">
-        <f>RIGHT(D121:D248,4)</f>
-        <v>3684</v>
+      <c r="A121" s="93" t="str">
+        <f t="shared" ref="A121:A123" si="0">RIGHT(D121:D254,4)</f>
+        <v>7147</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001062353684</v>
+        <v>1001063237147</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="G121" s="23">
         <f>F121*E121</f>
@@ -4974,83 +4937,77 @@
       <c r="J121" s="39"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="94" t="str">
-        <f>RIGHT(D122:D248,4)</f>
-        <v>5682</v>
+      <c r="A122" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>7225</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="C122" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001193115682</v>
+        <v>1001066537225</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G122" s="23">
-        <f>E122*0.12</f>
+        <f t="shared" ref="G122:G123" si="1">F122*E122</f>
         <v>0</v>
       </c>
-      <c r="H122" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I122" s="14">
-        <v>60</v>
-      </c>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
       <c r="J122" s="39"/>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="94" t="str">
-        <f>RIGHT(D123:D251,4)</f>
-        <v>4117</v>
+      <c r="A123" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>7227</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>23</v>
+        <v>245</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001062504117</v>
+        <v>1001063097227</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="G123" s="23">
-        <f>E123*1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H123" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="I123" s="14">
-        <v>120</v>
-      </c>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
       <c r="J123" s="39"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="94" t="str">
-        <f>RIGHT(D124:D252,4)</f>
-        <v>3680</v>
+      <c r="A124" s="93" t="str">
+        <f>RIGHT(D124:D251,4)</f>
+        <v>3684</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>23</v>
+        <v>127</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001062353680</v>
+        <v>1001062353684</v>
       </c>
       <c r="E124" s="24"/>
-      <c r="F124" s="23"/>
+      <c r="F124" s="23">
+        <v>0.25</v>
+      </c>
       <c r="G124" s="23">
-        <f>E124</f>
+        <f>F124*E124</f>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
@@ -5058,1098 +5015,1151 @@
       <c r="J124" s="39"/>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="94" t="str">
-        <f>RIGHT(D125:D252,4)</f>
-        <v>5483</v>
+      <c r="A125" s="93" t="str">
+        <f>RIGHT(D125:D251,4)</f>
+        <v>5682</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001062505483</v>
+        <v>1001193115682</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G125" s="23">
-        <f>E125*0.25</f>
+        <f>E125*0.12</f>
         <v>0</v>
       </c>
       <c r="H125" s="14">
-        <v>2</v>
+        <v>0.96</v>
       </c>
       <c r="I125" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J125" s="39"/>
     </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="94" t="str">
-        <f>RIGHT(D126:D253,4)</f>
-        <v>6453</v>
+    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="93" t="str">
+        <f>RIGHT(D126:D254,4)</f>
+        <v>4117</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>26</v>
+        <v>129</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D126" s="28">
-        <v>1001202506453</v>
+        <v>1001062504117</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.1</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G126" s="23">
-        <f>E126*0.1</f>
+        <f>E126*1</f>
         <v>0</v>
       </c>
       <c r="H126" s="14">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="I126" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J126" s="39"/>
     </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="94" t="str">
-        <f>RIGHT(D127:D254,4)</f>
-        <v/>
-      </c>
-      <c r="B127" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C127" s="74"/>
-      <c r="D127" s="74"/>
-      <c r="E127" s="74"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="74"/>
-      <c r="H127" s="74"/>
-      <c r="I127" s="74"/>
-      <c r="J127" s="75"/>
-    </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="94" t="str">
-        <f>RIGHT(D128:D258,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B128" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C128" s="32" t="s">
+    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="93" t="str">
+        <f>RIGHT(D127:D255,4)</f>
+        <v>3680</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D128" s="80">
-        <v>1001092436470</v>
+      <c r="D127" s="28">
+        <v>1001062353680</v>
+      </c>
+      <c r="E127" s="24"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23">
+        <f>E127</f>
+        <v>0</v>
+      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="39"/>
+    </row>
+    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="93" t="str">
+        <f>RIGHT(D128:D255,4)</f>
+        <v>5483</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="28">
+        <v>1001062505483</v>
       </c>
       <c r="E128" s="24"/>
-      <c r="F128" s="23"/>
+      <c r="F128" s="23">
+        <v>0.25</v>
+      </c>
       <c r="G128" s="23">
-        <f>E128*1</f>
+        <f>E128*0.25</f>
         <v>0</v>
       </c>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
+      <c r="H128" s="14">
+        <v>2</v>
+      </c>
+      <c r="I128" s="14">
+        <v>120</v>
+      </c>
       <c r="J128" s="39"/>
     </row>
-    <row r="129" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="94" t="str">
-        <f>RIGHT(D129:D259,4)</f>
-        <v>6495</v>
-      </c>
-      <c r="B129" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C129" s="32" t="s">
+    <row r="129" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="93" t="str">
+        <f>RIGHT(D129:D256,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D129" s="80">
-        <v>1001092436495</v>
+      <c r="D129" s="28">
+        <v>1001202506453</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G129" s="23">
-        <f>F129*E129</f>
+        <f>E129*0.1</f>
         <v>0</v>
       </c>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
+      <c r="H129" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I129" s="14">
+        <v>60</v>
+      </c>
       <c r="J129" s="39"/>
     </row>
-    <row r="130" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="94" t="str">
-        <f>RIGHT(D130:D260,4)</f>
-        <v>7235</v>
-      </c>
-      <c r="B130" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C130" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D130" s="80">
-        <v>1001095227235</v>
-      </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G130" s="23">
-        <f>F130*E130</f>
-        <v>0</v>
-      </c>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="39"/>
-    </row>
-    <row r="131" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="94" t="str">
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="93" t="str">
+        <f>RIGHT(D130:D257,4)</f>
+        <v/>
+      </c>
+      <c r="B130" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" s="74"/>
+      <c r="D130" s="74"/>
+      <c r="E130" s="74"/>
+      <c r="F130" s="73"/>
+      <c r="G130" s="74"/>
+      <c r="H130" s="74"/>
+      <c r="I130" s="74"/>
+      <c r="J130" s="75"/>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="93" t="str">
         <f>RIGHT(D131:D261,4)</f>
-        <v>6411</v>
+        <v>6470</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D131" s="80">
-        <v>1001093316411</v>
+        <v>1001092436470</v>
       </c>
       <c r="E131" s="24"/>
-      <c r="F131" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F131" s="23"/>
       <c r="G131" s="23">
-        <f>F131*E131</f>
+        <f>E131*1</f>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="39"/>
     </row>
-    <row r="132" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="94" t="str">
-        <f>RIGHT(D132:D259,4)</f>
-        <v>6866</v>
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="93" t="str">
+        <f>RIGHT(D132:D262,4)</f>
+        <v>6495</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D132" s="80">
-        <v>1001095716866</v>
+        <v>1001092436495</v>
       </c>
       <c r="E132" s="24"/>
-      <c r="F132" s="23"/>
+      <c r="F132" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G132" s="23">
-        <f>E132*1</f>
+        <f>F132*E132</f>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="39"/>
     </row>
-    <row r="133" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="94" t="str">
-        <f>RIGHT(D133:D256,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B133" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C133" s="37" t="s">
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="93" t="str">
+        <f>RIGHT(D133:D263,4)</f>
+        <v>7235</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D133" s="51">
-        <v>1001094053215</v>
+      <c r="D133" s="80">
+        <v>1001095227235</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="G133" s="23">
-        <f>E133*0.4</f>
+        <f>F133*E133</f>
         <v>0</v>
       </c>
-      <c r="H133" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I133" s="14">
-        <v>60</v>
-      </c>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
       <c r="J133" s="39"/>
     </row>
-    <row r="134" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="94" t="str">
-        <f>RIGHT(D134:D257,4)</f>
-        <v>7245</v>
-      </c>
-      <c r="B134" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="C134" s="37" t="s">
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="93" t="str">
+        <f>RIGHT(D134:D264,4)</f>
+        <v>6411</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D134" s="51">
-        <v>1001092687245</v>
+      <c r="D134" s="80">
+        <v>1001093316411</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G134" s="23">
-        <f>E134*0.4</f>
+        <f>F134*E134</f>
         <v>0</v>
       </c>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="39"/>
-      <c r="K134" s="82"/>
-    </row>
-    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="94" t="str">
-        <f>RIGHT(D135:D259,4)</f>
-        <v/>
-      </c>
-      <c r="B135" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
-      <c r="J135" s="75"/>
-    </row>
-    <row r="136" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="94" t="str">
-        <f>RIGHT(D136:D262,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C136" s="35" t="s">
+    </row>
+    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="93" t="str">
+        <f>RIGHT(D135:D262,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B135" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" s="80">
+        <v>1001095716866</v>
+      </c>
+      <c r="E135" s="24"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23">
+        <f>E135*1</f>
+        <v>0</v>
+      </c>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="39"/>
+    </row>
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="93" t="str">
+        <f>RIGHT(D136:D259,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="28">
-        <v>1001084217090</v>
+      <c r="D136" s="51">
+        <v>1001094053215</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G136" s="23">
-        <f>E136*F136</f>
+        <f>E136*0.4</f>
         <v>0</v>
       </c>
-      <c r="H136" s="14"/>
+      <c r="H136" s="14">
+        <v>3.2</v>
+      </c>
       <c r="I136" s="14">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J136" s="39"/>
     </row>
-    <row r="137" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="94" t="str">
-        <f>RIGHT(D137:D263,4)</f>
-        <v>4691</v>
-      </c>
-      <c r="B137" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C137" s="35" t="s">
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="93" t="str">
+        <f>RIGHT(D137:D260,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C137" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D137" s="28">
-        <v>1001083424691</v>
+      <c r="D137" s="51">
+        <v>1001092687245</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G137" s="23">
-        <f t="shared" ref="G137:G143" si="0">F137*E137</f>
+        <f>E137*0.4</f>
         <v>0</v>
       </c>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
-      <c r="J137" s="93"/>
-    </row>
-    <row r="138" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="94" t="str">
-        <f>RIGHT(D138:D264,4)</f>
-        <v>7187</v>
-      </c>
-      <c r="B138" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="C138" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D138" s="28">
-        <v>1001085637187</v>
-      </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G138" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="93"/>
-    </row>
-    <row r="139" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="94" t="str">
+      <c r="J137" s="39"/>
+    </row>
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="93" t="str">
+        <f>RIGHT(D138:D262,4)</f>
+        <v/>
+      </c>
+      <c r="B138" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" s="74"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="73"/>
+      <c r="G138" s="74"/>
+      <c r="H138" s="74"/>
+      <c r="I138" s="74"/>
+      <c r="J138" s="75"/>
+    </row>
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="93" t="str">
         <f>RIGHT(D139:D265,4)</f>
-        <v>6201</v>
+        <v>7090</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C139" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D139" s="28">
-        <v>1001225636201</v>
+        <v>1001084217090</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G139" s="23">
-        <f t="shared" si="0"/>
+        <f>E139*F139</f>
         <v>0</v>
       </c>
       <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="93"/>
-    </row>
-    <row r="140" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="94" t="str">
-        <f>RIGHT(D140:D265,4)</f>
-        <v>6842</v>
+      <c r="I139" s="14">
+        <v>50</v>
+      </c>
+      <c r="J139" s="39"/>
+    </row>
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="93" t="str">
+        <f>RIGHT(D140:D266,4)</f>
+        <v>4691</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C140" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D140" s="28">
-        <v>1001080216842</v>
+        <v>1001083424691</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
         <v>0.3</v>
       </c>
       <c r="G140" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G140:G146" si="2">F140*E140</f>
         <v>0</v>
       </c>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
-      <c r="J140" s="93"/>
-    </row>
-    <row r="141" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="94" t="str">
-        <f>RIGHT(D141:D265,4)</f>
-        <v>6492</v>
+      <c r="J140" s="92"/>
+    </row>
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="93" t="str">
+        <f>RIGHT(D141:D267,4)</f>
+        <v>7187</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="C141" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D141" s="28">
-        <v>1001084226492</v>
+        <v>1001085637187</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
         <v>0.3</v>
       </c>
       <c r="G141" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
-      <c r="J141" s="93"/>
-    </row>
-    <row r="142" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="94" t="str">
-        <f>RIGHT(D142:D263,4)</f>
-        <v>6279</v>
+      <c r="J141" s="92"/>
+    </row>
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="93" t="str">
+        <f>RIGHT(D142:D268,4)</f>
+        <v>6201</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C142" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D142" s="28">
-        <v>1001220286279</v>
+        <v>1001225636201</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
         <v>0.15</v>
       </c>
       <c r="G142" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
-      <c r="J142" s="93"/>
-    </row>
-    <row r="143" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="94" t="str">
-        <f>RIGHT(D143:D264,4)</f>
-        <v>4786</v>
+      <c r="J142" s="92"/>
+    </row>
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="93" t="str">
+        <f>RIGHT(D143:D268,4)</f>
+        <v>6842</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C143" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D143" s="28">
-        <v>1001053944786</v>
+        <v>1001080216842</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.3</v>
       </c>
       <c r="G143" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
-      <c r="J143" s="93"/>
-    </row>
-    <row r="144" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="94" t="str">
-        <f>RIGHT(D144:D265,4)</f>
-        <v>7052</v>
+      <c r="J143" s="92"/>
+    </row>
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="93" t="str">
+        <f>RIGHT(D144:D268,4)</f>
+        <v>6492</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D144" s="28">
-        <v>1001204447052</v>
+        <v>1001084226492</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="23">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G144" s="23">
-        <f>E144</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
-      <c r="J144" s="93"/>
-    </row>
-    <row r="145" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="94" t="str">
-        <f>RIGHT(D145:D265,4)</f>
-        <v>7053</v>
+      <c r="J144" s="92"/>
+    </row>
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="93" t="str">
+        <f>RIGHT(D145:D266,4)</f>
+        <v>6279</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D145" s="28">
-        <v>1001223297053</v>
+        <v>1001220286279</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G145" s="23">
-        <f>E145</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
-      <c r="J145" s="93"/>
-    </row>
-    <row r="146" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="94" t="str">
-        <f>RIGHT(D146:D265,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C146" s="33" t="s">
+      <c r="J145" s="92"/>
+    </row>
+    <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="93" t="str">
+        <f>RIGHT(D146:D267,4)</f>
+        <v>4786</v>
+      </c>
+      <c r="B146" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="28">
-        <v>1001223297092</v>
+        <v>1001053944786</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="23">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G146" s="23">
-        <f>F146*E146</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
-      <c r="J146" s="39"/>
-    </row>
-    <row r="147" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="94" t="str">
-        <f>RIGHT(D147:D266,4)</f>
-        <v>7103</v>
-      </c>
-      <c r="B147" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>26</v>
+      <c r="J146" s="92"/>
+    </row>
+    <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="93" t="str">
+        <f>RIGHT(D147:D268,4)</f>
+        <v>7052</v>
+      </c>
+      <c r="B147" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D147" s="28">
-        <v>1001223297103</v>
+        <v>1001204447052</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="23">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G147" s="23">
-        <f>F147*E147</f>
+        <f>E147</f>
         <v>0</v>
       </c>
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
-      <c r="J147" s="93"/>
-    </row>
-    <row r="148" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="94" t="str">
-        <f>RIGHT(D148:D263,4)</f>
-        <v>6919</v>
+      <c r="J147" s="92"/>
+    </row>
+    <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="93" t="str">
+        <f>RIGHT(D148:D268,4)</f>
+        <v>7053</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D148" s="28">
-        <v>1001223296919</v>
+        <v>1001223297053</v>
       </c>
       <c r="E148" s="24"/>
-      <c r="F148" s="23"/>
+      <c r="F148" s="23">
+        <v>1</v>
+      </c>
       <c r="G148" s="23">
-        <f>E148*0.18</f>
+        <f>E148</f>
         <v>0</v>
       </c>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
-      <c r="J148" s="93"/>
-    </row>
-    <row r="149" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="94" t="str">
-        <f>RIGHT(D149:D264,4)</f>
+      <c r="J148" s="92"/>
+    </row>
+    <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="93" t="str">
+        <f>RIGHT(D149:D268,4)</f>
+        <v>7092</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="28">
+        <v>1001223297092</v>
+      </c>
+      <c r="E149" s="24"/>
+      <c r="F149" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G149" s="23">
+        <f>F149*E149</f>
+        <v>0</v>
+      </c>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="39"/>
+    </row>
+    <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="93" t="str">
+        <f>RIGHT(D150:D269,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" s="28">
+        <v>1001223297103</v>
+      </c>
+      <c r="E150" s="24"/>
+      <c r="F150" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="G150" s="23">
+        <f>F150*E150</f>
+        <v>0</v>
+      </c>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="92"/>
+    </row>
+    <row r="151" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="93" t="str">
+        <f>RIGHT(D151:D266,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B151" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E151" s="24"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="23">
+        <f>E151*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="92"/>
+    </row>
+    <row r="152" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="93" t="str">
+        <f>RIGHT(D152:D267,4)</f>
         <v/>
       </c>
-      <c r="B149" s="74" t="s">
+      <c r="B152" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="C149" s="74"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="74"/>
-      <c r="H149" s="74"/>
-      <c r="I149" s="74"/>
-      <c r="J149" s="75"/>
-    </row>
-    <row r="150" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="94" t="str">
-        <f>RIGHT(D150:D267,4)</f>
+      <c r="C152" s="74"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="73"/>
+      <c r="G152" s="74"/>
+      <c r="H152" s="74"/>
+      <c r="I152" s="74"/>
+      <c r="J152" s="75"/>
+    </row>
+    <row r="153" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="93" t="str">
+        <f>RIGHT(D153:D270,4)</f>
         <v/>
       </c>
-      <c r="B150" s="74" t="s">
+      <c r="B153" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C150" s="74"/>
-      <c r="D150" s="74"/>
-      <c r="E150" s="74"/>
-      <c r="F150" s="73"/>
-      <c r="G150" s="74"/>
-      <c r="H150" s="74"/>
-      <c r="I150" s="74"/>
-      <c r="J150" s="75"/>
-    </row>
-    <row r="151" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="94" t="str">
-        <f>RIGHT(D151:D268,4)</f>
+      <c r="C153" s="74"/>
+      <c r="D153" s="74"/>
+      <c r="E153" s="74"/>
+      <c r="F153" s="73"/>
+      <c r="G153" s="74"/>
+      <c r="H153" s="74"/>
+      <c r="I153" s="74"/>
+      <c r="J153" s="75"/>
+    </row>
+    <row r="154" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="93" t="str">
+        <f>RIGHT(D154:D271,4)</f>
         <v>6314</v>
       </c>
-      <c r="B151" s="47" t="s">
+      <c r="B154" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C151" s="33" t="s">
+      <c r="C154" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D151" s="28">
+      <c r="D154" s="28">
         <v>1002112606314</v>
-      </c>
-      <c r="E151" s="24"/>
-      <c r="F151" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G151" s="23">
-        <f>E151*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H151" s="14">
-        <v>8</v>
-      </c>
-      <c r="I151" s="72">
-        <v>120</v>
-      </c>
-      <c r="J151" s="39"/>
-    </row>
-    <row r="152" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="94" t="str">
-        <f>RIGHT(D152:D269,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B152" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D152" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E152" s="24"/>
-      <c r="F152" s="23"/>
-      <c r="G152" s="23">
-        <f>E152*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H152" s="14"/>
-      <c r="I152" s="72"/>
-      <c r="J152" s="39"/>
-    </row>
-    <row r="153" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="94" t="str">
-        <f>RIGHT(D153:D270,4)</f>
-        <v>6157</v>
-      </c>
-      <c r="B153" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D153" s="28">
-        <v>1002115056157</v>
-      </c>
-      <c r="E153" s="24"/>
-      <c r="F153" s="23"/>
-      <c r="G153" s="23">
-        <f>E153*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H153" s="14"/>
-      <c r="I153" s="72"/>
-      <c r="J153" s="39"/>
-    </row>
-    <row r="154" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="94" t="str">
-        <f t="shared" ref="A154:A165" si="1">RIGHT(D154:D269,4)</f>
-        <v>6313</v>
-      </c>
-      <c r="B154" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D154" s="28">
-        <v>1002112606313</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="23">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G154" s="23">
-        <f>E154*0.9</f>
+        <f>E154*0.5</f>
         <v>0</v>
       </c>
       <c r="H154" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I154" s="72">
         <v>120</v>
       </c>
       <c r="J154" s="39"/>
     </row>
-    <row r="155" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="94" t="str">
-        <f t="shared" si="1"/>
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="93" t="str">
+        <f>RIGHT(D155:D272,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B155" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E155" s="24"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23">
+        <f>E155*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H155" s="14"/>
+      <c r="I155" s="72"/>
+      <c r="J155" s="39"/>
+    </row>
+    <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="93" t="str">
+        <f>RIGHT(D156:D273,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B156" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E156" s="24"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23">
+        <f>E156*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H156" s="14"/>
+      <c r="I156" s="72"/>
+      <c r="J156" s="39"/>
+    </row>
+    <row r="157" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="93" t="str">
+        <f t="shared" ref="A157:A168" si="3">RIGHT(D157:D272,4)</f>
+        <v>6313</v>
+      </c>
+      <c r="B157" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="28">
+        <v>1002112606313</v>
+      </c>
+      <c r="E157" s="24"/>
+      <c r="F157" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="G157" s="23">
+        <f>E157*0.9</f>
+        <v>0</v>
+      </c>
+      <c r="H157" s="14">
+        <v>9</v>
+      </c>
+      <c r="I157" s="72">
+        <v>120</v>
+      </c>
+      <c r="J157" s="39"/>
+    </row>
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="93" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B155" s="74" t="s">
+      <c r="B158" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C155" s="74"/>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="74"/>
-      <c r="H155" s="74"/>
-      <c r="I155" s="74"/>
-      <c r="J155" s="75"/>
-    </row>
-    <row r="156" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="94" t="str">
-        <f t="shared" si="1"/>
+      <c r="C158" s="74"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="73"/>
+      <c r="G158" s="74"/>
+      <c r="H158" s="74"/>
+      <c r="I158" s="74"/>
+      <c r="J158" s="75"/>
+    </row>
+    <row r="159" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>4945</v>
       </c>
-      <c r="B156" s="47" t="s">
+      <c r="B159" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C156" s="36" t="s">
+      <c r="C159" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D156" s="28">
+      <c r="D159" s="28">
         <v>1002151784945</v>
-      </c>
-      <c r="E156" s="24"/>
-      <c r="F156" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G156" s="23">
-        <f>E156*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H156" s="14">
-        <v>8</v>
-      </c>
-      <c r="I156" s="72">
-        <v>120</v>
-      </c>
-      <c r="J156" s="39"/>
-    </row>
-    <row r="157" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B157" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C157" s="74"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="73"/>
-      <c r="G157" s="74"/>
-      <c r="H157" s="74"/>
-      <c r="I157" s="74"/>
-      <c r="J157" s="75"/>
-    </row>
-    <row r="158" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>4956</v>
-      </c>
-      <c r="B158" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="C158" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="D158" s="83">
-        <v>1002133974956</v>
-      </c>
-      <c r="E158" s="84"/>
-      <c r="F158" s="85">
-        <v>0.42</v>
-      </c>
-      <c r="G158" s="85">
-        <f>E158*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H158" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I158" s="91">
-        <v>120</v>
-      </c>
-      <c r="J158" s="86"/>
-      <c r="K158" s="87"/>
-    </row>
-    <row r="159" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>1762</v>
-      </c>
-      <c r="B159" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C159" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D159" s="28">
-        <v>1002131151762</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="23">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="G159" s="23">
-        <f>E159*0.42</f>
+        <f>E159*0.5</f>
         <v>0</v>
       </c>
       <c r="H159" s="14">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="I159" s="72">
         <v>120</v>
       </c>
       <c r="J159" s="39"/>
     </row>
-    <row r="160" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="94" t="str">
-        <f t="shared" si="1"/>
+    <row r="160" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B160" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" s="74"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="74"/>
+      <c r="F160" s="73"/>
+      <c r="G160" s="74"/>
+      <c r="H160" s="74"/>
+      <c r="I160" s="74"/>
+      <c r="J160" s="75"/>
+    </row>
+    <row r="161" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>4956</v>
+      </c>
+      <c r="B161" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="83">
+        <v>1002133974956</v>
+      </c>
+      <c r="E161" s="84"/>
+      <c r="F161" s="85">
+        <v>0.42</v>
+      </c>
+      <c r="G161" s="85">
+        <f>E161*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H161" s="86">
+        <v>4.2</v>
+      </c>
+      <c r="I161" s="91">
+        <v>120</v>
+      </c>
+      <c r="J161" s="86"/>
+      <c r="K161" s="87"/>
+    </row>
+    <row r="162" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>1762</v>
+      </c>
+      <c r="B162" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E162" s="24"/>
+      <c r="F162" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G162" s="23">
+        <f>E162*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H162" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I162" s="72">
+        <v>120</v>
+      </c>
+      <c r="J162" s="39"/>
+    </row>
+    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>1764</v>
       </c>
-      <c r="B160" s="47" t="s">
+      <c r="B163" s="47" t="s">
         <v>163</v>
-      </c>
-      <c r="C160" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D160" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E160" s="24"/>
-      <c r="F160" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G160" s="23">
-        <f>E160*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H160" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I160" s="72">
-        <v>120</v>
-      </c>
-      <c r="J160" s="39"/>
-    </row>
-    <row r="161" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B161" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="C161" s="74"/>
-      <c r="D161" s="74"/>
-      <c r="E161" s="74"/>
-      <c r="F161" s="73"/>
-      <c r="G161" s="74"/>
-      <c r="H161" s="74"/>
-      <c r="I161" s="74"/>
-      <c r="J161" s="75"/>
-    </row>
-    <row r="162" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B162" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="C162" s="74"/>
-      <c r="D162" s="74"/>
-      <c r="E162" s="74"/>
-      <c r="F162" s="73"/>
-      <c r="G162" s="74"/>
-      <c r="H162" s="74"/>
-      <c r="I162" s="74"/>
-      <c r="J162" s="75"/>
-    </row>
-    <row r="163" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6004</v>
-      </c>
-      <c r="B163" s="47" t="s">
-        <v>166</v>
       </c>
       <c r="C163" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D163" s="68" t="s">
-        <v>167</v>
+      <c r="D163" s="28">
+        <v>1002131181764</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="G163" s="23">
-        <f>E163*1</f>
+        <f>E163*0.42</f>
         <v>0</v>
       </c>
       <c r="H163" s="14">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="I163" s="72">
         <v>120</v>
       </c>
       <c r="J163" s="39"/>
     </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="94" t="str">
-        <f t="shared" si="1"/>
+    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B164" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" s="74"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="74"/>
+      <c r="F164" s="73"/>
+      <c r="G164" s="74"/>
+      <c r="H164" s="74"/>
+      <c r="I164" s="74"/>
+      <c r="J164" s="75"/>
+    </row>
+    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B165" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" s="74"/>
+      <c r="D165" s="74"/>
+      <c r="E165" s="74"/>
+      <c r="F165" s="73"/>
+      <c r="G165" s="74"/>
+      <c r="H165" s="74"/>
+      <c r="I165" s="74"/>
+      <c r="J165" s="75"/>
+    </row>
+    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>6004</v>
+      </c>
+      <c r="B166" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E166" s="24"/>
+      <c r="F166" s="23">
+        <v>1</v>
+      </c>
+      <c r="G166" s="23">
+        <f>E166*1</f>
+        <v>0</v>
+      </c>
+      <c r="H166" s="14">
+        <v>8</v>
+      </c>
+      <c r="I166" s="72">
+        <v>120</v>
+      </c>
+      <c r="J166" s="39"/>
+    </row>
+    <row r="167" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>5417</v>
       </c>
-      <c r="B164" s="47" t="s">
+      <c r="B167" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C164" s="30" t="s">
+      <c r="C167" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="68" t="s">
+      <c r="D167" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="E164" s="24"/>
-      <c r="F164" s="23">
+      <c r="E167" s="24"/>
+      <c r="F167" s="23">
         <v>2</v>
       </c>
-      <c r="G164" s="23">
-        <f>E164*1</f>
+      <c r="G167" s="23">
+        <f>E167*1</f>
         <v>0</v>
       </c>
-      <c r="H164" s="14">
+      <c r="H167" s="14">
         <v>6</v>
       </c>
-      <c r="I164" s="72">
+      <c r="I167" s="72">
         <v>90</v>
       </c>
-      <c r="J164" s="39"/>
-    </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="94" t="str">
-        <f t="shared" si="1"/>
+      <c r="J167" s="39"/>
+    </row>
+    <row r="168" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>6019</v>
       </c>
-      <c r="B165" s="47" t="s">
+      <c r="B168" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C165" s="36" t="s">
+      <c r="C168" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D165" s="69" t="s">
+      <c r="D168" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="E165" s="24"/>
-      <c r="F165" s="23">
+      <c r="E168" s="24"/>
+      <c r="F168" s="23">
         <v>1</v>
       </c>
-      <c r="G165" s="23">
-        <f>E165*1</f>
+      <c r="G168" s="23">
+        <f>E168*1</f>
         <v>0</v>
       </c>
-      <c r="H165" s="14">
+      <c r="H168" s="14">
         <v>12</v>
       </c>
-      <c r="I165" s="72">
+      <c r="I168" s="72">
         <v>120</v>
       </c>
-      <c r="J165" s="39"/>
-    </row>
-    <row r="166" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="77"/>
-      <c r="B166" s="77" t="s">
+      <c r="J168" s="39"/>
+    </row>
+    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="77"/>
+      <c r="B169" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C166" s="16"/>
-      <c r="D166" s="48"/>
-      <c r="E166" s="17">
-        <f>SUM(E5:E165)</f>
+      <c r="C169" s="16"/>
+      <c r="D169" s="48"/>
+      <c r="E169" s="17">
+        <f>SUM(E5:E168)</f>
         <v>0</v>
       </c>
-      <c r="F166" s="17">
-        <f>SUM(F10:F165)</f>
-        <v>43.853333333333325</v>
-      </c>
-      <c r="G166" s="17">
-        <f>SUM(G11:G165)</f>
+      <c r="F169" s="17">
+        <f>SUM(F10:F168)</f>
+        <v>44.433333333333323</v>
+      </c>
+      <c r="G169" s="17">
+        <f>SUM(G11:G168)</f>
         <v>0</v>
       </c>
-      <c r="H166" s="17">
-        <f>SUM(H10:H162)</f>
+      <c r="H169" s="17">
+        <f>SUM(H10:H165)</f>
         <v>128.91</v>
       </c>
-      <c r="I166" s="17"/>
-      <c r="J166" s="17"/>
-    </row>
-    <row r="167" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="53"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="52"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="20"/>
-      <c r="I167" s="20"/>
-      <c r="J167" s="21"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B168" s="53"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="52"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="20"/>
-      <c r="J168" s="21"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B169" s="53"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="52"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
-      <c r="J169" s="21"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+    </row>
+    <row r="170" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B170" s="53"/>
       <c r="C170" s="18"/>
       <c r="D170" s="52"/>
@@ -6159,7 +6169,7 @@
       <c r="I170" s="20"/>
       <c r="J170" s="21"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B171" s="53"/>
       <c r="C171" s="18"/>
       <c r="D171" s="52"/>
@@ -6169,7 +6179,7 @@
       <c r="I171" s="20"/>
       <c r="J171" s="21"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B172" s="53"/>
       <c r="C172" s="18"/>
       <c r="D172" s="52"/>
@@ -6179,7 +6189,7 @@
       <c r="I172" s="20"/>
       <c r="J172" s="21"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B173" s="53"/>
       <c r="C173" s="18"/>
       <c r="D173" s="52"/>
@@ -6189,7 +6199,7 @@
       <c r="I173" s="20"/>
       <c r="J173" s="21"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B174" s="53"/>
       <c r="C174" s="18"/>
       <c r="D174" s="52"/>
@@ -6199,7 +6209,7 @@
       <c r="I174" s="20"/>
       <c r="J174" s="21"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B175" s="53"/>
       <c r="C175" s="18"/>
       <c r="D175" s="52"/>
@@ -6209,7 +6219,7 @@
       <c r="I175" s="20"/>
       <c r="J175" s="21"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B176" s="53"/>
       <c r="C176" s="18"/>
       <c r="D176" s="52"/>
@@ -21359,17 +21369,47 @@
       <c r="I1690" s="20"/>
       <c r="J1690" s="21"/>
     </row>
+    <row r="1691" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1691" s="53"/>
+      <c r="C1691" s="18"/>
+      <c r="D1691" s="52"/>
+      <c r="F1691" s="19"/>
+      <c r="G1691" s="19"/>
+      <c r="H1691" s="20"/>
+      <c r="I1691" s="20"/>
+      <c r="J1691" s="21"/>
+    </row>
+    <row r="1692" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1692" s="53"/>
+      <c r="C1692" s="18"/>
+      <c r="D1692" s="52"/>
+      <c r="F1692" s="19"/>
+      <c r="G1692" s="19"/>
+      <c r="H1692" s="20"/>
+      <c r="I1692" s="20"/>
+      <c r="J1692" s="21"/>
+    </row>
+    <row r="1693" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1693" s="53"/>
+      <c r="C1693" s="18"/>
+      <c r="D1693" s="52"/>
+      <c r="F1693" s="19"/>
+      <c r="G1693" s="19"/>
+      <c r="H1693" s="20"/>
+      <c r="I1693" s="20"/>
+      <c r="J1693" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J166" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J169" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B159" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B162" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D163:D165" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D166:D168" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
